--- a/data/output/FV2304_FV2210/UTILMD/11185.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11185.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6014" uniqueCount="420">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6035" uniqueCount="420">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1426,6 +1426,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U273" totalsRowShown="0">
+  <autoFilter ref="A1:U273"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1715,7 +1745,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14385,5 +14418,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11185.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11185.xlsx
@@ -2644,7 +2644,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4626,7 +4626,7 @@
         <v>382</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4834,7 +4834,7 @@
         <v>384</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5042,7 +5042,7 @@
         <v>385</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5362,7 +5362,7 @@
         <v>387</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5514,7 +5514,7 @@
         <v>388</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5898,7 +5898,7 @@
         <v>390</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -6186,7 +6186,7 @@
         <v>392</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6660,7 +6660,7 @@
         <v>396</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6906,7 +6906,7 @@
         <v>387</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7156,7 +7156,7 @@
         <v>387</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -7296,7 +7296,7 @@
         <v>398</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7450,7 +7450,7 @@
         <v>400</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7604,7 +7604,7 @@
         <v>398</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7754,7 +7754,7 @@
         <v>402</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7902,7 +7902,7 @@
         <v>387</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8094,7 +8094,7 @@
         <v>403</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8286,7 +8286,7 @@
         <v>387</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8478,7 +8478,7 @@
         <v>404</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8770,7 +8770,7 @@
         <v>387</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -9172,7 +9172,7 @@
         <v>405</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9382,7 +9382,7 @@
         <v>387</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9632,7 +9632,7 @@
         <v>387</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9830,7 +9830,7 @@
         <v>407</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10036,7 +10036,7 @@
         <v>408</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10326,7 +10326,7 @@
         <v>383</v>
       </c>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10532,7 +10532,7 @@
         <v>387</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10676,7 +10676,7 @@
         <v>387</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10774,7 +10774,7 @@
         <v>387</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10918,7 +10918,7 @@
         <v>383</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11070,7 +11070,7 @@
         <v>410</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -11358,7 +11358,7 @@
         <v>411</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11608,7 +11608,7 @@
         <v>387</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11748,7 +11748,7 @@
         <v>383</v>
       </c>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11896,7 +11896,7 @@
         <v>387</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12088,7 +12088,7 @@
         <v>387</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -12338,7 +12338,7 @@
         <v>413</v>
       </c>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -12628,7 +12628,7 @@
         <v>383</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -12834,7 +12834,7 @@
         <v>387</v>
       </c>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -12978,7 +12978,7 @@
         <v>383</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -13076,7 +13076,7 @@
         <v>387</v>
       </c>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -13220,7 +13220,7 @@
         <v>383</v>
       </c>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -13372,7 +13372,7 @@
         <v>415</v>
       </c>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -13660,7 +13660,7 @@
         <v>387</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -14068,7 +14068,7 @@
         <v>418</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -14206,7 +14206,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -14356,7 +14356,7 @@
         <v>387</v>
       </c>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -14590,7 +14590,7 @@
         <v>387</v>
       </c>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -14994,7 +14994,7 @@
         <v>387</v>
       </c>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -15402,7 +15402,7 @@
         <v>420</v>
       </c>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -15690,7 +15690,7 @@
         <v>387</v>
       </c>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N271" s="2"/>
